--- a/Analysis/AticAtac/Data/BackgroundItemTable.xlsx
+++ b/Analysis/AticAtac/Data/BackgroundItemTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IC514955\Documents\My Developments\FractalStudios\AticAtac\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IC514955\Documents\My Developments\FractalStudios\GitHub\ZxSpectrum\Analysis\AticAtac\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E0DB4C-4E08-43D3-8EF3-7B4408F65FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackgroundItemTable" sheetId="1" r:id="rId1"/>
@@ -4122,7 +4123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4957,8 +4958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4979,7 +4979,7 @@
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5339,7 +5339,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -5447,7 +5447,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -5483,7 +5483,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -5519,7 +5519,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -5591,7 +5591,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -5807,7 +5807,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
@@ -5843,7 +5843,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -6131,7 +6131,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>119</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>133</v>
       </c>
@@ -6491,7 +6491,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>135</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
@@ -6563,7 +6563,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>140</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>143</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>148</v>
       </c>
@@ -6743,7 +6743,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -6923,7 +6923,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>168</v>
       </c>
@@ -6995,7 +6995,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>170</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>172</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -7103,7 +7103,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>189</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>198</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -7391,7 +7391,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -7463,7 +7463,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
@@ -7499,7 +7499,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
@@ -7535,7 +7535,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>216</v>
       </c>
@@ -7571,7 +7571,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>221</v>
       </c>
@@ -7643,7 +7643,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>224</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>229</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>234</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>236</v>
       </c>
@@ -7859,7 +7859,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>238</v>
       </c>
@@ -7895,7 +7895,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>240</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>243</v>
       </c>
@@ -7967,7 +7967,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>245</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>247</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>250</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>253</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>255</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>260</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>265</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>268</v>
       </c>
@@ -8327,7 +8327,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>270</v>
       </c>
@@ -8363,7 +8363,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>273</v>
       </c>
@@ -8399,7 +8399,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>275</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>278</v>
       </c>
@@ -8507,7 +8507,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>283</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>287</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>289</v>
       </c>
@@ -8651,7 +8651,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>292</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>295</v>
       </c>
@@ -8723,7 +8723,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>297</v>
       </c>
@@ -8759,7 +8759,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>301</v>
       </c>
@@ -8795,7 +8795,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>305</v>
       </c>
@@ -8831,7 +8831,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>308</v>
       </c>
@@ -8867,7 +8867,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>311</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>313</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>317</v>
       </c>
@@ -8975,7 +8975,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>319</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>322</v>
       </c>
@@ -9047,7 +9047,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>324</v>
       </c>
@@ -9083,7 +9083,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>327</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>334</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>339</v>
       </c>
@@ -9299,7 +9299,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>344</v>
       </c>
@@ -9335,7 +9335,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>346</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>349</v>
       </c>
@@ -9443,7 +9443,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>355</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>360</v>
       </c>
@@ -9551,7 +9551,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>362</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>364</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>366</v>
       </c>
@@ -9659,7 +9659,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>369</v>
       </c>
@@ -9731,7 +9731,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>374</v>
       </c>
@@ -9803,7 +9803,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>379</v>
       </c>
@@ -9839,7 +9839,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>381</v>
       </c>
@@ -9875,7 +9875,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>383</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>389</v>
       </c>
@@ -10019,7 +10019,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>394</v>
       </c>
@@ -10091,7 +10091,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>399</v>
       </c>
@@ -10127,7 +10127,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>401</v>
       </c>
@@ -10163,7 +10163,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>404</v>
       </c>
@@ -10199,7 +10199,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>406</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>409</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>414</v>
       </c>
@@ -10379,7 +10379,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>420</v>
       </c>
@@ -10415,7 +10415,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>422</v>
       </c>
@@ -10487,7 +10487,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>427</v>
       </c>
@@ -10559,7 +10559,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>432</v>
       </c>
@@ -10595,7 +10595,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>435</v>
       </c>
@@ -10631,7 +10631,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>437</v>
       </c>
@@ -10703,7 +10703,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>442</v>
       </c>
@@ -10775,7 +10775,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>447</v>
       </c>
@@ -10811,7 +10811,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>450</v>
       </c>
@@ -10847,7 +10847,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>452</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>455</v>
       </c>
@@ -10919,7 +10919,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>457</v>
       </c>
@@ -10955,7 +10955,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>460</v>
       </c>
@@ -10991,7 +10991,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>462</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>465</v>
       </c>
@@ -11099,7 +11099,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>470</v>
       </c>
@@ -11171,7 +11171,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>475</v>
       </c>
@@ -11207,7 +11207,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>477</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>480</v>
       </c>
@@ -11315,7 +11315,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>485</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>490</v>
       </c>
@@ -11459,7 +11459,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>494</v>
       </c>
@@ -11495,7 +11495,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>496</v>
       </c>
@@ -11567,7 +11567,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>500</v>
       </c>
@@ -11603,7 +11603,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>503</v>
       </c>
@@ -11711,7 +11711,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>510</v>
       </c>
@@ -11783,7 +11783,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>514</v>
       </c>
@@ -11819,7 +11819,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>517</v>
       </c>
@@ -11855,7 +11855,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>519</v>
       </c>
@@ -11891,7 +11891,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>522</v>
       </c>
@@ -11963,7 +11963,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>527</v>
       </c>
@@ -12035,7 +12035,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>532</v>
       </c>
@@ -12071,7 +12071,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>534</v>
       </c>
@@ -12107,7 +12107,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>537</v>
       </c>
@@ -12143,7 +12143,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>539</v>
       </c>
@@ -12215,7 +12215,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>544</v>
       </c>
@@ -12287,7 +12287,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>549</v>
       </c>
@@ -12323,7 +12323,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>552</v>
       </c>
@@ -12359,7 +12359,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>554</v>
       </c>
@@ -12395,7 +12395,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>557</v>
       </c>
@@ -12431,7 +12431,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>559</v>
       </c>
@@ -12467,7 +12467,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>561</v>
       </c>
@@ -12539,7 +12539,7 @@
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>566</v>
       </c>
@@ -12575,7 +12575,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>568</v>
       </c>
@@ -12611,7 +12611,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>570</v>
       </c>
@@ -12647,7 +12647,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>572</v>
       </c>
@@ -12683,7 +12683,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>575</v>
       </c>
@@ -12755,7 +12755,7 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>581</v>
       </c>
@@ -12791,7 +12791,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>583</v>
       </c>
@@ -12863,7 +12863,7 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>588</v>
       </c>
@@ -12899,7 +12899,7 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>591</v>
       </c>
@@ -12935,7 +12935,7 @@
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>593</v>
       </c>
@@ -12971,7 +12971,7 @@
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>595</v>
       </c>
@@ -13043,7 +13043,7 @@
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>600</v>
       </c>
@@ -13115,7 +13115,7 @@
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>604</v>
       </c>
@@ -13151,7 +13151,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>606</v>
       </c>
@@ -13187,7 +13187,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>609</v>
       </c>
@@ -13223,7 +13223,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>611</v>
       </c>
@@ -13259,7 +13259,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>614</v>
       </c>
@@ -13295,7 +13295,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>616</v>
       </c>
@@ -13331,7 +13331,7 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>619</v>
       </c>
@@ -13403,7 +13403,7 @@
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>625</v>
       </c>
@@ -13439,7 +13439,7 @@
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>627</v>
       </c>
@@ -13511,7 +13511,7 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>632</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>635</v>
       </c>
@@ -13583,7 +13583,7 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>637</v>
       </c>
@@ -13619,7 +13619,7 @@
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>639</v>
       </c>
@@ -13691,7 +13691,7 @@
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>644</v>
       </c>
@@ -13727,7 +13727,7 @@
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>646</v>
       </c>
@@ -13763,7 +13763,7 @@
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>648</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>653</v>
       </c>
@@ -13871,7 +13871,7 @@
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>655</v>
       </c>
@@ -13943,7 +13943,7 @@
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>659</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>662</v>
       </c>
@@ -14051,7 +14051,7 @@
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>667</v>
       </c>
@@ -14123,7 +14123,7 @@
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>672</v>
       </c>
@@ -14195,7 +14195,7 @@
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>676</v>
       </c>
@@ -14267,7 +14267,7 @@
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>681</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>686</v>
       </c>
@@ -14411,7 +14411,7 @@
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>690</v>
       </c>
@@ -14447,7 +14447,7 @@
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>692</v>
       </c>
@@ -14483,7 +14483,7 @@
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>695</v>
       </c>
@@ -14519,7 +14519,7 @@
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>697</v>
       </c>
@@ -14555,7 +14555,7 @@
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>701</v>
       </c>
@@ -14591,7 +14591,7 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>704</v>
       </c>
@@ -14627,7 +14627,7 @@
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>707</v>
       </c>
@@ -14663,7 +14663,7 @@
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>709</v>
       </c>
@@ -14699,7 +14699,7 @@
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>712</v>
       </c>
@@ -14735,7 +14735,7 @@
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>714</v>
       </c>
@@ -14807,7 +14807,7 @@
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>718</v>
       </c>
@@ -14843,7 +14843,7 @@
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>721</v>
       </c>
@@ -14915,7 +14915,7 @@
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>727</v>
       </c>
@@ -14987,7 +14987,7 @@
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>732</v>
       </c>
@@ -15059,7 +15059,7 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>737</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>743</v>
       </c>
@@ -15203,7 +15203,7 @@
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>748</v>
       </c>
@@ -15275,7 +15275,7 @@
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>753</v>
       </c>
@@ -15347,7 +15347,7 @@
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>759</v>
       </c>
@@ -15419,7 +15419,7 @@
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>764</v>
       </c>
@@ -15491,7 +15491,7 @@
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>769</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>775</v>
       </c>
@@ -15635,7 +15635,7 @@
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>780</v>
       </c>
@@ -15707,7 +15707,7 @@
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>785</v>
       </c>
@@ -15743,7 +15743,7 @@
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>787</v>
       </c>
@@ -15779,7 +15779,7 @@
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>789</v>
       </c>
@@ -15815,7 +15815,7 @@
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>791</v>
       </c>
@@ -15851,7 +15851,7 @@
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>793</v>
       </c>
@@ -15887,7 +15887,7 @@
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>795</v>
       </c>
@@ -15923,7 +15923,7 @@
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>797</v>
       </c>
@@ -15959,7 +15959,7 @@
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
     </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>799</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>801</v>
       </c>
@@ -16031,7 +16031,7 @@
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>803</v>
       </c>
@@ -16067,7 +16067,7 @@
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>805</v>
       </c>
@@ -16103,7 +16103,7 @@
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>807</v>
       </c>
@@ -16139,7 +16139,7 @@
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>809</v>
       </c>
@@ -16175,7 +16175,7 @@
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>811</v>
       </c>
@@ -16211,7 +16211,7 @@
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>813</v>
       </c>
@@ -16247,7 +16247,7 @@
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>815</v>
       </c>
@@ -16283,7 +16283,7 @@
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>817</v>
       </c>
@@ -16319,7 +16319,7 @@
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
     </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>819</v>
       </c>
@@ -16355,7 +16355,7 @@
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
     </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>821</v>
       </c>
@@ -16391,7 +16391,7 @@
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
     </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>823</v>
       </c>
@@ -16427,7 +16427,7 @@
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
     </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>825</v>
       </c>
@@ -16463,7 +16463,7 @@
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
     </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>827</v>
       </c>
@@ -16499,7 +16499,7 @@
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
     </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>829</v>
       </c>
@@ -16535,7 +16535,7 @@
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
     </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>831</v>
       </c>
@@ -16571,7 +16571,7 @@
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>833</v>
       </c>
@@ -16607,7 +16607,7 @@
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
     </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>836</v>
       </c>
@@ -16643,7 +16643,7 @@
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
     </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>838</v>
       </c>
@@ -16679,7 +16679,7 @@
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
     </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>841</v>
       </c>
@@ -16715,7 +16715,7 @@
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
     </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>843</v>
       </c>
@@ -16787,7 +16787,7 @@
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
     </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>848</v>
       </c>
@@ -16859,7 +16859,7 @@
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
     </row>
-    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>853</v>
       </c>
@@ -16895,7 +16895,7 @@
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
     </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>856</v>
       </c>
@@ -16931,7 +16931,7 @@
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
     </row>
-    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>858</v>
       </c>
@@ -16967,7 +16967,7 @@
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
     </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>860</v>
       </c>
@@ -17003,7 +17003,7 @@
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
     </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>862</v>
       </c>
@@ -17039,7 +17039,7 @@
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>864</v>
       </c>
@@ -17075,7 +17075,7 @@
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>866</v>
       </c>
@@ -17111,7 +17111,7 @@
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>868</v>
       </c>
@@ -17147,7 +17147,7 @@
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>870</v>
       </c>
@@ -17219,7 +17219,7 @@
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>874</v>
       </c>
@@ -17255,7 +17255,7 @@
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>876</v>
       </c>
@@ -17291,7 +17291,7 @@
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
     </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>879</v>
       </c>
@@ -17327,7 +17327,7 @@
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>881</v>
       </c>
@@ -17363,7 +17363,7 @@
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>884</v>
       </c>
@@ -17399,7 +17399,7 @@
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>886</v>
       </c>
@@ -17435,7 +17435,7 @@
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
     </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>889</v>
       </c>
@@ -17507,7 +17507,7 @@
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>894</v>
       </c>
@@ -17579,7 +17579,7 @@
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>899</v>
       </c>
@@ -17651,7 +17651,7 @@
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
     </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>904</v>
       </c>
@@ -17687,7 +17687,7 @@
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
     </row>
-    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>906</v>
       </c>
@@ -17723,7 +17723,7 @@
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
     </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>908</v>
       </c>
@@ -17759,7 +17759,7 @@
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
     </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>915</v>
       </c>
@@ -17795,7 +17795,7 @@
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>921</v>
       </c>
@@ -17831,7 +17831,7 @@
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
     </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>923</v>
       </c>
@@ -17867,7 +17867,7 @@
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
     </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>926</v>
       </c>
@@ -17903,7 +17903,7 @@
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
     </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>928</v>
       </c>
@@ -17939,7 +17939,7 @@
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>930</v>
       </c>
@@ -17975,7 +17975,7 @@
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
     </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>933</v>
       </c>
@@ -18011,7 +18011,7 @@
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
     </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>936</v>
       </c>
@@ -18047,7 +18047,7 @@
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
     </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>938</v>
       </c>
@@ -18083,7 +18083,7 @@
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
     </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>940</v>
       </c>
@@ -18119,7 +18119,7 @@
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
     </row>
-    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>942</v>
       </c>
@@ -18155,7 +18155,7 @@
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
     </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>944</v>
       </c>
@@ -18191,7 +18191,7 @@
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
     </row>
-    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>947</v>
       </c>
@@ -18227,7 +18227,7 @@
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
     </row>
-    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>950</v>
       </c>
@@ -18263,7 +18263,7 @@
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
     </row>
-    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>952</v>
       </c>
@@ -18299,7 +18299,7 @@
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
     </row>
-    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>955</v>
       </c>
@@ -18335,7 +18335,7 @@
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
     </row>
-    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>958</v>
       </c>
@@ -18371,7 +18371,7 @@
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
     </row>
-    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>960</v>
       </c>
@@ -18407,7 +18407,7 @@
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
     </row>
-    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>962</v>
       </c>
@@ -18443,7 +18443,7 @@
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
     </row>
-    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>964</v>
       </c>
@@ -18479,7 +18479,7 @@
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
     </row>
-    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>966</v>
       </c>
@@ -18515,7 +18515,7 @@
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
     </row>
-    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>968</v>
       </c>
@@ -18551,7 +18551,7 @@
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
     </row>
-    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>973</v>
       </c>
@@ -18587,7 +18587,7 @@
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
     </row>
-    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>975</v>
       </c>
@@ -18623,7 +18623,7 @@
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
     </row>
-    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>979</v>
       </c>
@@ -18659,7 +18659,7 @@
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
     </row>
-    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>983</v>
       </c>
@@ -18731,7 +18731,7 @@
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
     </row>
-    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>989</v>
       </c>
@@ -18803,7 +18803,7 @@
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
     </row>
-    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>993</v>
       </c>
@@ -18839,7 +18839,7 @@
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
     </row>
-    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>995</v>
       </c>
@@ -18875,7 +18875,7 @@
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
     </row>
-    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>998</v>
       </c>
@@ -18911,7 +18911,7 @@
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
     </row>
-    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>1000</v>
       </c>
@@ -18947,7 +18947,7 @@
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
     </row>
-    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>1003</v>
       </c>
@@ -18983,7 +18983,7 @@
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
     </row>
-    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>1006</v>
       </c>
@@ -19019,7 +19019,7 @@
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
     </row>
-    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>1008</v>
       </c>
@@ -19055,7 +19055,7 @@
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
     </row>
-    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>1010</v>
       </c>
@@ -19091,7 +19091,7 @@
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
     </row>
-    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>1012</v>
       </c>
@@ -19127,7 +19127,7 @@
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
     </row>
-    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>1014</v>
       </c>
@@ -19163,7 +19163,7 @@
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
     </row>
-    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>1016</v>
       </c>
@@ -19199,7 +19199,7 @@
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
     </row>
-    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>1018</v>
       </c>
@@ -19379,7 +19379,7 @@
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
     </row>
-    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>1029</v>
       </c>
@@ -19415,7 +19415,7 @@
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
     </row>
-    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>1031</v>
       </c>
@@ -19451,7 +19451,7 @@
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
     </row>
-    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>1033</v>
       </c>
@@ -19487,7 +19487,7 @@
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
     </row>
-    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>1035</v>
       </c>
@@ -19523,7 +19523,7 @@
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
     </row>
-    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>1037</v>
       </c>
@@ -19559,7 +19559,7 @@
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
     </row>
-    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>1039</v>
       </c>
@@ -19595,7 +19595,7 @@
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
     </row>
-    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>1041</v>
       </c>
@@ -19631,7 +19631,7 @@
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
     </row>
-    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>1043</v>
       </c>
@@ -19667,7 +19667,7 @@
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
     </row>
-    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>1045</v>
       </c>
@@ -19703,7 +19703,7 @@
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
     </row>
-    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>1047</v>
       </c>
@@ -19739,7 +19739,7 @@
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
     </row>
-    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>1049</v>
       </c>
@@ -19775,7 +19775,7 @@
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
     </row>
-    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>1051</v>
       </c>
@@ -19847,7 +19847,7 @@
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
     </row>
-    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>1055</v>
       </c>
@@ -19919,7 +19919,7 @@
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
     </row>
-    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>1059</v>
       </c>
@@ -19955,7 +19955,7 @@
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
     </row>
-    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>1061</v>
       </c>
@@ -19991,7 +19991,7 @@
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
     </row>
-    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>1067</v>
       </c>
@@ -20027,7 +20027,7 @@
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
     </row>
-    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>1069</v>
       </c>
@@ -20063,7 +20063,7 @@
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
     </row>
-    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>1071</v>
       </c>
@@ -20099,7 +20099,7 @@
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
     </row>
-    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>1073</v>
       </c>
@@ -20135,7 +20135,7 @@
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
     </row>
-    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>1075</v>
       </c>
@@ -20171,7 +20171,7 @@
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
     </row>
-    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>1077</v>
       </c>
@@ -20207,7 +20207,7 @@
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
     </row>
-    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>1079</v>
       </c>
@@ -20243,7 +20243,7 @@
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
     </row>
-    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>1081</v>
       </c>
@@ -20279,7 +20279,7 @@
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
     </row>
-    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>1083</v>
       </c>
@@ -20315,7 +20315,7 @@
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
     </row>
-    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>1085</v>
       </c>
@@ -20351,7 +20351,7 @@
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
     </row>
-    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>1087</v>
       </c>
@@ -20387,7 +20387,7 @@
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
     </row>
-    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>1089</v>
       </c>
@@ -20423,7 +20423,7 @@
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
     </row>
-    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>1092</v>
       </c>
@@ -20459,7 +20459,7 @@
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
     </row>
-    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>1094</v>
       </c>
@@ -20495,7 +20495,7 @@
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
     </row>
-    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>1097</v>
       </c>
@@ -20531,7 +20531,7 @@
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
     </row>
-    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1099</v>
       </c>
@@ -20567,7 +20567,7 @@
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
     </row>
-    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>1103</v>
       </c>
@@ -20603,7 +20603,7 @@
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
     </row>
-    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>1105</v>
       </c>
@@ -20639,7 +20639,7 @@
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
     </row>
-    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>1107</v>
       </c>
@@ -20675,7 +20675,7 @@
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
     </row>
-    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>1109</v>
       </c>
@@ -20711,7 +20711,7 @@
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
     </row>
-    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>1111</v>
       </c>
@@ -20819,7 +20819,7 @@
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
     </row>
-    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>1120</v>
       </c>
@@ -20855,7 +20855,7 @@
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
     </row>
-    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>1125</v>
       </c>
@@ -20891,7 +20891,7 @@
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
     </row>
-    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1128</v>
       </c>
@@ -20927,7 +20927,7 @@
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
     </row>
-    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>1131</v>
       </c>
@@ -20999,7 +20999,7 @@
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
     </row>
-    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1135</v>
       </c>
@@ -21107,7 +21107,7 @@
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
     </row>
-    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1141</v>
       </c>
@@ -21143,7 +21143,7 @@
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
     </row>
-    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1143</v>
       </c>
@@ -21179,7 +21179,7 @@
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
     </row>
-    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1145</v>
       </c>
@@ -21215,7 +21215,7 @@
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
     </row>
-    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>1147</v>
       </c>
@@ -21323,7 +21323,7 @@
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
     </row>
-    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1153</v>
       </c>
@@ -21359,7 +21359,7 @@
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
     </row>
-    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>1157</v>
       </c>
@@ -21395,7 +21395,7 @@
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
     </row>
-    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>1159</v>
       </c>
@@ -21431,7 +21431,7 @@
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
     </row>
-    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>1162</v>
       </c>
@@ -21467,7 +21467,7 @@
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
     </row>
-    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>1164</v>
       </c>
@@ -21503,7 +21503,7 @@
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
     </row>
-    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>1166</v>
       </c>
@@ -21539,7 +21539,7 @@
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
     </row>
-    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>1168</v>
       </c>
@@ -21575,7 +21575,7 @@
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
     </row>
-    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>1170</v>
       </c>
@@ -21611,7 +21611,7 @@
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
     </row>
-    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>1172</v>
       </c>
@@ -21647,7 +21647,7 @@
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
     </row>
-    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>1175</v>
       </c>
@@ -21719,7 +21719,7 @@
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
     </row>
-    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>1179</v>
       </c>
@@ -21755,7 +21755,7 @@
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
     </row>
-    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1181</v>
       </c>
@@ -21791,7 +21791,7 @@
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
     </row>
-    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>1184</v>
       </c>
@@ -21827,7 +21827,7 @@
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
     </row>
-    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>1186</v>
       </c>
@@ -21863,7 +21863,7 @@
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
     </row>
-    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>1188</v>
       </c>
@@ -21899,7 +21899,7 @@
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
     </row>
-    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1190</v>
       </c>
@@ -21935,7 +21935,7 @@
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
     </row>
-    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>1193</v>
       </c>
@@ -21971,7 +21971,7 @@
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
     </row>
-    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>1195</v>
       </c>
@@ -22007,7 +22007,7 @@
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
     </row>
-    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>1197</v>
       </c>
@@ -22043,7 +22043,7 @@
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
     </row>
-    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>1199</v>
       </c>
@@ -22079,7 +22079,7 @@
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
     </row>
-    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>1201</v>
       </c>
@@ -22115,7 +22115,7 @@
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
     </row>
-    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>1203</v>
       </c>
@@ -22151,7 +22151,7 @@
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
     </row>
-    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>1205</v>
       </c>
@@ -22187,7 +22187,7 @@
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
     </row>
-    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>1207</v>
       </c>
@@ -22223,7 +22223,7 @@
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
     </row>
-    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>1209</v>
       </c>
@@ -22295,7 +22295,7 @@
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
     </row>
-    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>1213</v>
       </c>
@@ -22367,7 +22367,7 @@
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
     </row>
-    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>1217</v>
       </c>
@@ -22403,7 +22403,7 @@
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
     </row>
-    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>1219</v>
       </c>
@@ -22439,7 +22439,7 @@
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
     </row>
-    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>1222</v>
       </c>
@@ -22475,7 +22475,7 @@
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
     </row>
-    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1224</v>
       </c>
@@ -22511,7 +22511,7 @@
       <c r="M488" s="1"/>
       <c r="N488" s="1"/>
     </row>
-    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>1226</v>
       </c>
@@ -22583,7 +22583,7 @@
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
     </row>
-    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>1230</v>
       </c>
@@ -22655,7 +22655,7 @@
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
     </row>
-    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>1234</v>
       </c>
@@ -22691,7 +22691,7 @@
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
     </row>
-    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1236</v>
       </c>
@@ -22727,7 +22727,7 @@
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
     </row>
-    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1238</v>
       </c>
@@ -22763,7 +22763,7 @@
       <c r="M495" s="1"/>
       <c r="N495" s="1"/>
     </row>
-    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>1240</v>
       </c>
@@ -22835,7 +22835,7 @@
       <c r="M497" s="1"/>
       <c r="N497" s="1"/>
     </row>
-    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>1244</v>
       </c>
@@ -22871,7 +22871,7 @@
       <c r="M498" s="1"/>
       <c r="N498" s="1"/>
     </row>
-    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>1246</v>
       </c>
@@ -22907,7 +22907,7 @@
       <c r="M499" s="1"/>
       <c r="N499" s="1"/>
     </row>
-    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>1248</v>
       </c>
@@ -22979,7 +22979,7 @@
       <c r="M501" s="1"/>
       <c r="N501" s="1"/>
     </row>
-    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>1253</v>
       </c>
@@ -23015,7 +23015,7 @@
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
     </row>
-    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1256</v>
       </c>
@@ -23087,7 +23087,7 @@
       <c r="M504" s="1"/>
       <c r="N504" s="1"/>
     </row>
-    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1260</v>
       </c>
@@ -23159,7 +23159,7 @@
       <c r="M506" s="1"/>
       <c r="N506" s="1"/>
     </row>
-    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1264</v>
       </c>
@@ -23195,7 +23195,7 @@
       <c r="M507" s="1"/>
       <c r="N507" s="1"/>
     </row>
-    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1266</v>
       </c>
@@ -23231,7 +23231,7 @@
       <c r="M508" s="1"/>
       <c r="N508" s="1"/>
     </row>
-    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1268</v>
       </c>
@@ -23267,7 +23267,7 @@
       <c r="M509" s="1"/>
       <c r="N509" s="1"/>
     </row>
-    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>1270</v>
       </c>
@@ -23303,7 +23303,7 @@
       <c r="M510" s="1"/>
       <c r="N510" s="1"/>
     </row>
-    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1272</v>
       </c>
@@ -23339,7 +23339,7 @@
       <c r="M511" s="1"/>
       <c r="N511" s="1"/>
     </row>
-    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>1274</v>
       </c>
@@ -23375,7 +23375,7 @@
       <c r="M512" s="1"/>
       <c r="N512" s="1"/>
     </row>
-    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>1278</v>
       </c>
@@ -23411,7 +23411,7 @@
       <c r="M513" s="1"/>
       <c r="N513" s="1"/>
     </row>
-    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1280</v>
       </c>
@@ -23447,7 +23447,7 @@
       <c r="M514" s="1"/>
       <c r="N514" s="1"/>
     </row>
-    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1282</v>
       </c>
@@ -23483,7 +23483,7 @@
       <c r="M515" s="1"/>
       <c r="N515" s="1"/>
     </row>
-    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>1284</v>
       </c>
@@ -23519,7 +23519,7 @@
       <c r="M516" s="1"/>
       <c r="N516" s="1"/>
     </row>
-    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>1286</v>
       </c>
@@ -23555,7 +23555,7 @@
       <c r="M517" s="1"/>
       <c r="N517" s="1"/>
     </row>
-    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>1288</v>
       </c>
@@ -23591,7 +23591,7 @@
       <c r="M518" s="1"/>
       <c r="N518" s="1"/>
     </row>
-    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>1290</v>
       </c>
@@ -23627,7 +23627,7 @@
       <c r="M519" s="1"/>
       <c r="N519" s="1"/>
     </row>
-    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>1292</v>
       </c>
@@ -23663,7 +23663,7 @@
       <c r="M520" s="1"/>
       <c r="N520" s="1"/>
     </row>
-    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>1295</v>
       </c>
@@ -23699,7 +23699,7 @@
       <c r="M521" s="1"/>
       <c r="N521" s="1"/>
     </row>
-    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>1297</v>
       </c>
@@ -23735,7 +23735,7 @@
       <c r="M522" s="1"/>
       <c r="N522" s="1"/>
     </row>
-    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>1299</v>
       </c>
@@ -23771,7 +23771,7 @@
       <c r="M523" s="1"/>
       <c r="N523" s="1"/>
     </row>
-    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>1301</v>
       </c>
@@ -23807,7 +23807,7 @@
       <c r="M524" s="1"/>
       <c r="N524" s="1"/>
     </row>
-    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1305</v>
       </c>
@@ -23843,7 +23843,7 @@
       <c r="M525" s="1"/>
       <c r="N525" s="1"/>
     </row>
-    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>1307</v>
       </c>
@@ -23879,7 +23879,7 @@
       <c r="M526" s="1"/>
       <c r="N526" s="1"/>
     </row>
-    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>1309</v>
       </c>
@@ -23915,7 +23915,7 @@
       <c r="M527" s="1"/>
       <c r="N527" s="1"/>
     </row>
-    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1311</v>
       </c>
@@ -23951,7 +23951,7 @@
       <c r="M528" s="1"/>
       <c r="N528" s="1"/>
     </row>
-    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1313</v>
       </c>
@@ -23987,7 +23987,7 @@
       <c r="M529" s="1"/>
       <c r="N529" s="1"/>
     </row>
-    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>1315</v>
       </c>
@@ -24023,7 +24023,7 @@
       <c r="M530" s="1"/>
       <c r="N530" s="1"/>
     </row>
-    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1317</v>
       </c>
@@ -24059,7 +24059,7 @@
       <c r="M531" s="1"/>
       <c r="N531" s="1"/>
     </row>
-    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>1319</v>
       </c>
@@ -24095,7 +24095,7 @@
       <c r="M532" s="1"/>
       <c r="N532" s="1"/>
     </row>
-    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1321</v>
       </c>
@@ -24131,7 +24131,7 @@
       <c r="M533" s="1"/>
       <c r="N533" s="1"/>
     </row>
-    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1323</v>
       </c>
@@ -24167,7 +24167,7 @@
       <c r="M534" s="1"/>
       <c r="N534" s="1"/>
     </row>
-    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1326</v>
       </c>
@@ -24203,7 +24203,7 @@
       <c r="M535" s="1"/>
       <c r="N535" s="1"/>
     </row>
-    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1330</v>
       </c>
@@ -24275,7 +24275,7 @@
       <c r="M537" s="1"/>
       <c r="N537" s="1"/>
     </row>
-    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1334</v>
       </c>
@@ -24311,7 +24311,7 @@
       <c r="M538" s="1"/>
       <c r="N538" s="1"/>
     </row>
-    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1336</v>
       </c>
@@ -24347,7 +24347,7 @@
       <c r="M539" s="1"/>
       <c r="N539" s="1"/>
     </row>
-    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1338</v>
       </c>
@@ -24383,7 +24383,7 @@
       <c r="M540" s="1"/>
       <c r="N540" s="1"/>
     </row>
-    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1340</v>
       </c>
@@ -24419,7 +24419,7 @@
       <c r="M541" s="1"/>
       <c r="N541" s="1"/>
     </row>
-    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1342</v>
       </c>
@@ -24455,7 +24455,7 @@
       <c r="M542" s="1"/>
       <c r="N542" s="1"/>
     </row>
-    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1344</v>
       </c>
@@ -24491,7 +24491,7 @@
       <c r="M543" s="1"/>
       <c r="N543" s="1"/>
     </row>
-    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>1346</v>
       </c>
@@ -24563,7 +24563,7 @@
       <c r="M545" s="1"/>
       <c r="N545" s="1"/>
     </row>
-    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>1356</v>
       </c>
@@ -24599,7 +24599,7 @@
       <c r="M546" s="1"/>
       <c r="N546" s="1"/>
     </row>
-    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>1359</v>
       </c>
@@ -24635,7 +24635,7 @@
       <c r="M547" s="1"/>
       <c r="N547" s="1"/>
     </row>
-    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>1361</v>
       </c>
@@ -24671,7 +24671,7 @@
       <c r="M548" s="1"/>
       <c r="N548" s="1"/>
     </row>
-    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>1363</v>
       </c>
@@ -24708,13 +24708,7 @@
       <c r="N549" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J549">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Flags=0xe0 (Left)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J549" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
